--- a/notebooks/FBN1/input/LeGoff_FBN1_AD_GD.xlsx
+++ b/notebooks/FBN1/input/LeGoff_FBN1_AD_GD.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/FBN1/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA925A00-13C2-7649-97EB-D50B567FFA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="920" yWindow="1680" windowWidth="27400" windowHeight="17420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -22,388 +38,385 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="124">
   <si>
-    <t xml:space="preserve">Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age (Years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiac Involvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death at 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD (80 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitral stenosis and insufficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tracheotomy at 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5087A&gt;G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Tyr1696Cys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD (112 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitral stenosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTAP, respiratory insufficiency,
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Age (Years)</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Cardiac Involvement</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>HGVS</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Death at 9</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD (80 cm)</t>
+  </si>
+  <si>
+    <t>mitral stenosis and insufficiency</t>
+  </si>
+  <si>
+    <t>tracheotomy at 3</t>
+  </si>
+  <si>
+    <t>c.5087A&gt;G</t>
+  </si>
+  <si>
+    <t>p.Tyr1696Cys</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD (112 cm)</t>
+  </si>
+  <si>
+    <t>mitral stenosis</t>
+  </si>
+  <si>
+    <t>HTAP, respiratory insufficiency,
 hepatomegaly, laryngeal stenosis</t>
   </si>
   <si>
-    <t xml:space="preserve">c.5096A&gt;G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Tyr1699Cys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD (106 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hepatomegaly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5284G&gt;A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Gly1762Ser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD (116 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tricuspid stenosis, mild aortic insufficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−4 SD (103.5 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−4 SD (97 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laryngeal and respiratory insufficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death at 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−5 SD (75 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respiratory insufficiency, HTAP,
+    <t>c.5096A&gt;G</t>
+  </si>
+  <si>
+    <t>p.Tyr1699Cys</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD (106 cm)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>hepatomegaly</t>
+  </si>
+  <si>
+    <t>c.5284G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Gly1762Ser</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD (116 cm)</t>
+  </si>
+  <si>
+    <t>tricuspid stenosis, mild aortic insufficiency</t>
+  </si>
+  <si>
+    <t>−4 SD (103.5 cm)</t>
+  </si>
+  <si>
+    <t>−4 SD (97 cm)</t>
+  </si>
+  <si>
+    <t>laryngeal and respiratory insufficiency</t>
+  </si>
+  <si>
+    <t>U.K.</t>
+  </si>
+  <si>
+    <t>Death at 3</t>
+  </si>
+  <si>
+    <t>−5 SD (75 cm)</t>
+  </si>
+  <si>
+    <t>respiratory insufficiency, HTAP,
 Sleep apnea</t>
   </si>
   <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−4 SD (85 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitral and tricuspide stenosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respiratory insufficiency, hepatomegaly, spleep apnea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death at 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD (60 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laryngeal and respiratory insufficiency, HTAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5117G&gt;A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Cys1706Tyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−3.5 SD (133 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">–</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5157C&gt;G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Cys1719Trp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyloric stenosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−3 SD (85 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−4 SD (134 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitral valve prolapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD (92 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5182G&gt;A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Ala1728Thr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aortic stenosis, mitral and aortic valve insufficiencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5183C&gt;T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Ala1728Val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−6 SD (98 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5095T&gt;G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Tyr1699Asp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−4 SD (76 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">severe pulmonary hypertension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5198G&gt;A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Cys1733Tyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea/Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−6 SD (88 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitral insufficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−6 SD (99 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−6 SD (125 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broncho-pulmonary infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5165C&gt;G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Ser1722Cys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−3 SD (121 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5250T&gt;G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Ser1750Arg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−3.5 SD (128 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−6 SD (128 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mother of 22 a and 22b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD (111 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5177G&gt;T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Gly1726Val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD (119cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carpal tunnel syndrome, laminectomy C1-C3 for cervical spine stenosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD (104cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5202_5204dup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Gln1735dup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD (129cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5273A&gt;T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Asp1758Val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−4 SD (117 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5099A&gt;G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Tyr1700Cys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">−5 SD (130 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mother of 27a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;−6 SD 125 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carpal tunnel syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.5141T&gt;G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Met1714Arg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asthma</t>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>−4 SD (85 cm)</t>
+  </si>
+  <si>
+    <t>mitral and tricuspide stenosis</t>
+  </si>
+  <si>
+    <t>respiratory insufficiency, hepatomegaly, spleep apnea</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Death at 4</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD (60 cm)</t>
+  </si>
+  <si>
+    <t>laryngeal and respiratory insufficiency, HTAP</t>
+  </si>
+  <si>
+    <t>c.5117G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Cys1706Tyr</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>−3.5 SD (133 cm)</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>c.5157C&gt;G</t>
+  </si>
+  <si>
+    <t>p.Cys1719Trp</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>pyloric stenosis</t>
+  </si>
+  <si>
+    <t>−3 SD (85 cm)</t>
+  </si>
+  <si>
+    <t>−4 SD (134 cm)</t>
+  </si>
+  <si>
+    <t>mitral valve prolapse</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD (92 cm)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>c.5182G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Ala1728Thr</t>
+  </si>
+  <si>
+    <t>aortic stenosis, mitral and aortic valve insufficiencies</t>
+  </si>
+  <si>
+    <t>c.5183C&gt;T</t>
+  </si>
+  <si>
+    <t>p.Ala1728Val</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>−6 SD (98 cm)</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>c.5095T&gt;G</t>
+  </si>
+  <si>
+    <t>p.Tyr1699Asp</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>−4 SD (76 cm)</t>
+  </si>
+  <si>
+    <t>severe pulmonary hypertension</t>
+  </si>
+  <si>
+    <t>c.5198G&gt;A</t>
+  </si>
+  <si>
+    <t>p.Cys1733Tyr</t>
+  </si>
+  <si>
+    <t>Korea/Japan</t>
+  </si>
+  <si>
+    <t>−6 SD (88 cm)</t>
+  </si>
+  <si>
+    <t>mitral insufficiency</t>
+  </si>
+  <si>
+    <t>HTAP</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>−6 SD (99 cm)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>−6 SD (125 cm)</t>
+  </si>
+  <si>
+    <t>broncho-pulmonary infection</t>
+  </si>
+  <si>
+    <t>c.5165C&gt;G</t>
+  </si>
+  <si>
+    <t>p.Ser1722Cys</t>
+  </si>
+  <si>
+    <t>22-a</t>
+  </si>
+  <si>
+    <t>−3 SD (121 cm)</t>
+  </si>
+  <si>
+    <t>c.5250T&gt;G</t>
+  </si>
+  <si>
+    <t>p.Ser1750Arg</t>
+  </si>
+  <si>
+    <t>22-b</t>
+  </si>
+  <si>
+    <t>−3.5 SD (128 cm)</t>
+  </si>
+  <si>
+    <t>22-c</t>
+  </si>
+  <si>
+    <t>−6 SD (128 cm)</t>
+  </si>
+  <si>
+    <t>mother of 22 a and 22b</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD (111 cm)</t>
+  </si>
+  <si>
+    <t>c.5177G&gt;T</t>
+  </si>
+  <si>
+    <t>p.Gly1726Val</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD (119cm)</t>
+  </si>
+  <si>
+    <t>carpal tunnel syndrome, laminectomy C1-C3 for cervical spine stenosis</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD (104cm)</t>
+  </si>
+  <si>
+    <t>c.5202_5204dup</t>
+  </si>
+  <si>
+    <t>p.Gln1735dup</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD (129cm)</t>
+  </si>
+  <si>
+    <t>c.5273A&gt;T</t>
+  </si>
+  <si>
+    <t>p.Asp1758Val</t>
+  </si>
+  <si>
+    <t>27-a</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>−4 SD (117 cm)</t>
+  </si>
+  <si>
+    <t>c.5099A&gt;G</t>
+  </si>
+  <si>
+    <t>p.Tyr1700Cys</t>
+  </si>
+  <si>
+    <t>27-b</t>
+  </si>
+  <si>
+    <t>−5 SD (130 cm)</t>
+  </si>
+  <si>
+    <t>mother of 27a</t>
+  </si>
+  <si>
+    <t>&lt;−6 SD 125 cm</t>
+  </si>
+  <si>
+    <t>carpal tunnel syndrome</t>
+  </si>
+  <si>
+    <t>c.5141T&gt;G</t>
+  </si>
+  <si>
+    <t>p.Met1714Arg</t>
+  </si>
+  <si>
+    <t>asthma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -411,22 +424,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -443,17 +441,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -461,78 +478,380 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="11.5" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,21 +867,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -577,21 +896,21 @@
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -600,27 +919,27 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -629,27 +948,27 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -658,25 +977,25 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -685,25 +1004,25 @@
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -712,27 +1031,27 @@
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>5.7</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -747,21 +1066,21 @@
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -770,27 +1089,27 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>4.5</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -805,21 +1124,21 @@
       <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -828,27 +1147,27 @@
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -863,21 +1182,21 @@
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -886,25 +1205,25 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -913,25 +1232,25 @@
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -940,27 +1259,27 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -975,19 +1294,19 @@
       <c r="E16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -996,27 +1315,27 @@
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1025,27 +1344,27 @@
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1060,17 +1379,17 @@
       <c r="E19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1079,154 +1398,154 @@
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="10" t="s">
         <v>80</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="0" t="s">
+      <c r="H23" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1235,241 +1554,243 @@
       <c r="H25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="0" t="s">
+      <c r="H28" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="0" t="s">
+      <c r="H29" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>114</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" t="s">
         <v>114</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="2">
         <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2">
         <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F34" s="9"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
